--- a/data/trans_dic/P29_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas al día</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,31%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>29,75%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>30,29%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>34,34%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>29,96%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,41; 49,0</t>
+          <t>28,28; 53,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,45; 40,8</t>
+          <t>23,27; 37,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,36; 44,12</t>
+          <t>31,34; 43,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,4; 56,3</t>
+          <t>13,74; 32,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,83; 28,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,17; 38,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,65; 35,42</t>
+          <t>16,81; 30,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,26; 49,23</t>
+          <t>24,27; 36,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,61; 35,51</t>
+          <t>26,75; 36,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,89; 37,5</t>
+          <t>26,14; 44,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,2; 37,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,41; 50,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>24,26; 39,52</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>25,91; 34,72</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>30,4; 38,4</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>23,7; 37,56</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,04%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>43,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>26,13%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>28,21%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>31,33%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>27,83%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,88; 39,14</t>
+          <t>25,69; 37,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,96; 41,3</t>
+          <t>29,92; 39,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,4; 41,66</t>
+          <t>32,15; 41,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,49; 52,67</t>
+          <t>23,03; 33,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,34; 27,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,68; 26,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,55; 27,59</t>
+          <t>17,56; 26,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,4; 42,3</t>
+          <t>18,56; 25,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,42; 32,45</t>
+          <t>21,45; 29,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,59; 32,78</t>
+          <t>23,19; 32,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,82; 33,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,84; 46,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>22,64; 30,23</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>25,38; 31,37</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>28,55; 34,64</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>24,3; 31,8</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>19,08%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>20,58%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,38; 29,74</t>
+          <t>20,23; 31,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,5; 26,49</t>
+          <t>18,73; 27,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,56; 31,2</t>
+          <t>23,21; 31,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,26; 48,4</t>
+          <t>23,73; 36,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,9; 16,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,67; 20,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 23,8</t>
+          <t>8,28; 15,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,54; 29,47</t>
+          <t>12,31; 19,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,93; 21,45</t>
+          <t>16,58; 23,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,04; 22,16</t>
+          <t>9,31; 15,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,53; 26,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,64; 36,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>15,04; 21,73</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 22,04</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>20,76; 26,24</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 24,64</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>37,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>41,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>30,27%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>32,5%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,93; 35,37</t>
+          <t>31,65; 42,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,42; 34,53</t>
+          <t>31,56; 43,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,75; 37,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,42; 50,47</t>
+          <t>25,59; 37,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 22,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,5; 26,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,2; 26,97</t>
+          <t>20,29; 27,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,63; 40,04</t>
+          <t>22,14; 32,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,06; 28,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,6; 29,27</t>
+          <t>18,95; 28,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,12; 30,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,47; 44,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>27,32; 33,85</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>28,47; 36,48</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>23,75; 31,56</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32,76%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>31,66%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34,03%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28,85%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25,04%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23,77%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>26,51%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>27,23%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>29,46%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>29,65; 36,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29,04; 34,31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31,17; 37,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25,86; 32,4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18,24; 22,71</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20,88; 25,17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22,7; 27,36</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21,24; 26,63</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>24,68; 28,73</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>25,64; 28,97</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>27,46; 31,44</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 28,36</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>127674</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>157515</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>271520</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>104600</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>97646</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>193726</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>281212</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>220910</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>225320</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>351241</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>552732</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>325510</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>95941; 182459</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>121760; 193773</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>226104; 317404</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>61086; 143692</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>70287; 129389</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>154421; 229465</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>237487; 323343</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>167789; 285869</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>183700; 299295</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>300474; 402689</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>489288; 618098</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>257483; 408022</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>286729</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>415059</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>602759</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>297502</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>215543</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>270450</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>376719</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>295719</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>502273</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>685509</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>979478</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>593220</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>236890; 345340</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>359220; 475283</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>520783; 673627</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>243239; 353937</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>175560; 265808</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>228132; 316900</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>323151; 437583</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>249451; 349361</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>435153; 581146</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>616762; 762322</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>892474; 1083000</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>518135; 677853</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>180123</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>192261</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>293230</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>244938</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>88694</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>146730</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>231438</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>268818</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>338991</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>524668</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>354949</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>144735; 223275</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>157897; 233019</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>252796; 346221</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>197161; 300350</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>63678; 120347</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>114859; 182130</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>191939; 273276</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>83229; 142868</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>223365; 322637</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>291525; 391458</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>466372; 589551</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>295866; 424996</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>530740</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>319420</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>338210</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>332657</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>206790</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>224454</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>863396</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>526210</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>562664</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>461198; 614861</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>270748; 375823</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>277392; 408791</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>283019; 388107</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>168569; 247343</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>183705; 277142</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>779187; 965424</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>460934; 590687</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>487598; 648100</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>460.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>365.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>633.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>798.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>847.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>573.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1125266</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1084256</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1167510</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>985249</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>734540</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>817695</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>889369</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>851093</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1859806</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1901951</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2056880</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1836342</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1018124; 1237819</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>994424; 1174942</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1069468; 1273111</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>883115; 1106532</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>653456; 813389</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>743586; 896342</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>806390; 971815</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>760581; 953660</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1731687; 2016187</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1791250; 2023553</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1917391; 2195720</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1710550; 1984215</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
